--- a/Final_Projects/evaluation_criteria.xlsx
+++ b/Final_Projects/evaluation_criteria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgegustavorodriguezaboytes/data-science/sust_py/Final_Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF193419-9678-C34B-AEBF-8C1B536BBE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565F5B65-853E-A74C-986E-896B1C8EA3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Criteria</t>
   </si>
@@ -442,6 +442,15 @@
   </si>
   <si>
     <t>(Max 35)</t>
+  </si>
+  <si>
+    <t>Good (9-7)</t>
+  </si>
+  <si>
+    <t>Sufficient (6-4)</t>
+  </si>
+  <si>
+    <t>Insufficient (3-1)</t>
   </si>
 </sst>
 </file>
@@ -930,13 +939,15 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="44.6640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -951,13 +962,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
